--- a/Genesis.xlsx
+++ b/Genesis.xlsx
@@ -14,10 +14,11 @@
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
     <sheet name="TCs" sheetId="6" r:id="rId2"/>
-    <sheet name="TCs (2)" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="TCs (2)" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="364">
   <si>
     <t>Sr#</t>
   </si>
@@ -2251,7 +2252,10 @@
     <t>sleep(10)</t>
   </si>
   <si>
-    <t>83(Start)(End)</t>
+    <t>83(Start)</t>
+  </si>
+  <si>
+    <t>87(End)</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2644,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2822,9 +2826,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="79" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2839,9 +2840,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2858,7 +2856,16 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3624,7 +3631,7 @@
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="65" t="s">
         <v>341</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -3658,11 +3665,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3726,6 +3733,242 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:14" ht="15.6">
+      <c r="A2" s="72">
+        <v>70</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="23">
+        <v>200</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="115.2">
+      <c r="A3" s="72">
+        <v>70</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="37">
+        <v>200201</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" ht="27.6" customHeight="1">
+      <c r="A4" s="72">
+        <v>70</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="23">
+        <v>400</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" ht="115.2">
+      <c r="A5" s="72">
+        <v>70</v>
+      </c>
+      <c r="B5" s="72">
+        <v>86</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="23">
+        <v>400</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" ht="115.2">
+      <c r="A6" s="72">
+        <v>70</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="23">
+        <v>400</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="8" spans="1:14" s="50" customFormat="1"/>
+    <row r="9" spans="1:14" s="50" customFormat="1"/>
+    <row r="10" spans="1:14" s="50" customFormat="1"/>
+    <row r="11" spans="1:14" s="50" customFormat="1"/>
+    <row r="12" spans="1:14" s="50" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="41.4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" ht="72">
       <c r="A2" s="20">
         <v>1</v>
@@ -4669,7 +4912,7 @@
       <c r="B32" s="74">
         <v>9</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="77" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="75" t="s">
@@ -6587,7 +6830,7 @@
       <c r="B92" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="71" t="s">
+      <c r="C92" s="78" t="s">
         <v>303</v>
       </c>
       <c r="D92" s="75" t="s">
@@ -6613,7 +6856,7 @@
         <v>73</v>
       </c>
       <c r="B93" s="74"/>
-      <c r="C93" s="71"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="75" t="s">
         <v>298</v>
       </c>
@@ -6641,7 +6884,7 @@
       <c r="B94" s="74">
         <v>73</v>
       </c>
-      <c r="C94" s="71" t="s">
+      <c r="C94" s="78" t="s">
         <v>304</v>
       </c>
       <c r="D94" s="75" t="s">
@@ -6671,7 +6914,7 @@
       <c r="B95" s="74">
         <v>74</v>
       </c>
-      <c r="C95" s="71" t="s">
+      <c r="C95" s="78" t="s">
         <v>305</v>
       </c>
       <c r="D95" s="75" t="s">
@@ -6701,7 +6944,7 @@
       <c r="B96" s="74">
         <v>75</v>
       </c>
-      <c r="C96" s="71" t="s">
+      <c r="C96" s="78" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="75" t="s">
@@ -6729,7 +6972,7 @@
       <c r="B97" s="74">
         <v>76</v>
       </c>
-      <c r="C97" s="71" t="s">
+      <c r="C97" s="78" t="s">
         <v>167</v>
       </c>
       <c r="D97" s="75" t="s">
@@ -6754,10 +6997,10 @@
       <c r="A98" s="74">
         <v>72</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="78" t="s">
         <v>160</v>
       </c>
       <c r="D98" s="75" t="s">
@@ -6782,8 +7025,8 @@
       <c r="A99" s="74">
         <v>73</v>
       </c>
-      <c r="B99" s="76"/>
-      <c r="C99" s="71"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="78"/>
       <c r="D99" s="75" t="s">
         <v>23</v>
       </c>
@@ -6809,7 +7052,7 @@
       <c r="B100" s="31">
         <v>78</v>
       </c>
-      <c r="C100" s="71" t="s">
+      <c r="C100" s="78" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="75" t="s">
@@ -6837,7 +7080,7 @@
       <c r="B101" s="31">
         <v>79</v>
       </c>
-      <c r="C101" s="71" t="s">
+      <c r="C101" s="78" t="s">
         <v>175</v>
       </c>
       <c r="D101" s="75" t="s">
@@ -6865,7 +7108,7 @@
       <c r="B102" s="31">
         <v>80</v>
       </c>
-      <c r="C102" s="71" t="s">
+      <c r="C102" s="78" t="s">
         <v>177</v>
       </c>
       <c r="D102" s="75" t="s">
@@ -6893,7 +7136,7 @@
       <c r="B103" s="31">
         <v>81</v>
       </c>
-      <c r="C103" s="71" t="s">
+      <c r="C103" s="78" t="s">
         <v>178</v>
       </c>
       <c r="D103" s="75" t="s">
@@ -7298,10 +7541,10 @@
       <c r="A118" s="74">
         <v>70</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="C118" s="72" t="s">
+      <c r="C118" s="76" t="s">
         <v>229</v>
       </c>
       <c r="D118" s="23">
@@ -7327,7 +7570,7 @@
         <v>70</v>
       </c>
       <c r="B119" s="74"/>
-      <c r="C119" s="73"/>
+      <c r="C119" s="77"/>
       <c r="D119" s="37">
         <v>200201</v>
       </c>
@@ -7420,8 +7663,8 @@
       <c r="A122" s="74">
         <v>70</v>
       </c>
-      <c r="B122" s="77" t="s">
-        <v>254</v>
+      <c r="B122" s="74" t="s">
+        <v>363</v>
       </c>
       <c r="C122" s="75" t="s">
         <v>236</v>
@@ -7582,7 +7825,7 @@
       <c r="A127" s="74">
         <v>70</v>
       </c>
-      <c r="B127" s="76" t="s">
+      <c r="B127" s="74" t="s">
         <v>254</v>
       </c>
       <c r="C127" s="75" t="s">
@@ -7644,7 +7887,7 @@
       <c r="B129" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="C129" s="71" t="s">
+      <c r="C129" s="78" t="s">
         <v>323</v>
       </c>
       <c r="D129" s="75" t="s">
@@ -7667,7 +7910,7 @@
         <v>73</v>
       </c>
       <c r="B130" s="49"/>
-      <c r="C130" s="71"/>
+      <c r="C130" s="78"/>
       <c r="D130" s="75" t="s">
         <v>23</v>
       </c>
@@ -7689,7 +7932,7 @@
       <c r="B131" s="74">
         <v>73</v>
       </c>
-      <c r="C131" s="71" t="s">
+      <c r="C131" s="78" t="s">
         <v>318</v>
       </c>
       <c r="D131" s="75" t="s">
@@ -7713,7 +7956,7 @@
       <c r="B132" s="74">
         <v>73</v>
       </c>
-      <c r="C132" s="71" t="s">
+      <c r="C132" s="78" t="s">
         <v>319</v>
       </c>
       <c r="D132" s="75" t="s">
@@ -7743,7 +7986,7 @@
       <c r="C133" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="D133" s="72" t="s">
+      <c r="D133" s="76" t="s">
         <v>306</v>
       </c>
       <c r="E133" s="56" t="s">
@@ -7894,17 +8137,17 @@
       </c>
     </row>
     <row r="140" spans="1:14" ht="41.4">
-      <c r="A140" s="67" t="s">
+      <c r="A140" s="66" t="s">
         <v>344</v>
       </c>
       <c r="B140" s="50"/>
-      <c r="C140" s="67" t="s">
+      <c r="C140" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="D140" s="68">
+      <c r="D140" s="67">
         <v>401</v>
       </c>
-      <c r="E140" s="69" t="s">
+      <c r="E140" s="68" t="s">
         <v>171</v>
       </c>
       <c r="F140" s="24" t="s">
@@ -7916,22 +8159,22 @@
       <c r="J140" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="K140" s="70"/>
-      <c r="L140" s="70"/>
-      <c r="M140" s="70"/>
-      <c r="N140" s="70"/>
+      <c r="K140" s="69"/>
+      <c r="L140" s="69"/>
+      <c r="M140" s="69"/>
+      <c r="N140" s="69"/>
     </row>
     <row r="141" spans="1:14" ht="27.6">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="B141" s="67" t="s">
+      <c r="B141" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="C141" s="67" t="s">
+      <c r="C141" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="D141" s="65" t="s">
+      <c r="D141" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E141" s="24" t="s">
@@ -7942,23 +8185,23 @@
       <c r="H141" s="25"/>
       <c r="I141" s="15"/>
       <c r="J141" s="12"/>
-      <c r="K141" s="70" t="s">
+      <c r="K141" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="L141" s="70"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="70"/>
+      <c r="L141" s="69"/>
+      <c r="M141" s="69"/>
+      <c r="N141" s="69"/>
     </row>
     <row r="142" spans="1:14" ht="28.8">
-      <c r="A142" s="67" t="s">
+      <c r="A142" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="65" t="s">
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="E142" s="69" t="s">
+      <c r="E142" s="68" t="s">
         <v>171</v>
       </c>
       <c r="F142" s="24" t="s">
@@ -7972,25 +8215,25 @@
       <c r="J142" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="K142" s="70"/>
-      <c r="L142" s="70"/>
-      <c r="M142" s="70"/>
-      <c r="N142" s="70"/>
+      <c r="K142" s="69"/>
+      <c r="L142" s="69"/>
+      <c r="M142" s="69"/>
+      <c r="N142" s="69"/>
     </row>
     <row r="143" spans="1:14" ht="28.8">
-      <c r="A143" s="67" t="s">
+      <c r="A143" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B143" s="67" t="s">
+      <c r="B143" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="C143" s="67" t="s">
+      <c r="C143" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="D143" s="65" t="s">
+      <c r="D143" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="E143" s="69" t="s">
+      <c r="E143" s="68" t="s">
         <v>171</v>
       </c>
       <c r="F143" s="24" t="s">
@@ -8004,25 +8247,25 @@
       <c r="J143" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="K143" s="70"/>
-      <c r="L143" s="70"/>
-      <c r="M143" s="70"/>
-      <c r="N143" s="70"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="69"/>
+      <c r="M143" s="69"/>
+      <c r="N143" s="69"/>
     </row>
     <row r="144" spans="1:14" ht="41.4">
-      <c r="A144" s="67" t="s">
+      <c r="A144" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="B144" s="67" t="s">
+      <c r="B144" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="C144" s="67" t="s">
+      <c r="C144" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="D144" s="65" t="s">
+      <c r="D144" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="E144" s="69" t="s">
+      <c r="E144" s="68" t="s">
         <v>171</v>
       </c>
       <c r="F144" s="24" t="s">
@@ -8034,10 +8277,10 @@
       <c r="J144" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="K144" s="70"/>
-      <c r="L144" s="70"/>
-      <c r="M144" s="70"/>
-      <c r="N144" s="70"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="69"/>
+      <c r="M144" s="69"/>
+      <c r="N144" s="69"/>
     </row>
     <row r="146" s="50" customFormat="1"/>
     <row r="147" s="50" customFormat="1"/>
@@ -8046,11 +8289,10 @@
     <row r="150" s="50" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N108"/>
   <sheetViews>
@@ -10376,10 +10618,10 @@
       <c r="A73" s="34">
         <v>72</v>
       </c>
-      <c r="B73" s="78">
+      <c r="B73" s="79">
         <v>72</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="83" t="s">
         <v>160</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -10404,8 +10646,8 @@
       <c r="A74" s="34">
         <v>73</v>
       </c>
-      <c r="B74" s="78"/>
-      <c r="C74" s="82"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="83"/>
       <c r="D74" s="35" t="s">
         <v>23</v>
       </c>
@@ -10540,10 +10782,10 @@
       <c r="A79" s="34">
         <v>72</v>
       </c>
-      <c r="B79" s="78">
+      <c r="B79" s="79">
         <v>77</v>
       </c>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="83" t="s">
         <v>160</v>
       </c>
       <c r="D79" s="35" t="s">
@@ -10568,8 +10810,8 @@
       <c r="A80" s="34">
         <v>73</v>
       </c>
-      <c r="B80" s="78"/>
-      <c r="C80" s="82"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="83"/>
       <c r="D80" s="35" t="s">
         <v>23</v>
       </c>
@@ -10704,10 +10946,10 @@
       <c r="A85" s="34">
         <v>68</v>
       </c>
-      <c r="B85" s="78">
+      <c r="B85" s="79">
         <v>82</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="80" t="s">
         <v>181</v>
       </c>
       <c r="D85" s="35" t="s">
@@ -10732,8 +10974,8 @@
       <c r="A86" s="34">
         <v>69</v>
       </c>
-      <c r="B86" s="78"/>
-      <c r="C86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="80"/>
       <c r="D86" s="23">
         <v>200</v>
       </c>
@@ -10894,10 +11136,10 @@
       <c r="A92" s="34">
         <v>68</v>
       </c>
-      <c r="B92" s="78">
+      <c r="B92" s="79">
         <v>82</v>
       </c>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="80" t="s">
         <v>191</v>
       </c>
       <c r="D92" s="35" t="s">
@@ -10922,8 +11164,8 @@
       <c r="A93" s="34">
         <v>69</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="79"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="80"/>
       <c r="D93" s="23">
         <v>200</v>
       </c>
@@ -11087,7 +11329,7 @@
       <c r="B99" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="81" t="s">
         <v>229</v>
       </c>
       <c r="D99" s="23">
@@ -11113,7 +11355,7 @@
         <v>70</v>
       </c>
       <c r="B100" s="34"/>
-      <c r="C100" s="81"/>
+      <c r="C100" s="82"/>
       <c r="D100" s="37">
         <v>200201</v>
       </c>
